--- a/biology/Zoologie/Barbus_sp._'Pangani'/Barbus_sp._'Pangani'.xlsx
+++ b/biology/Zoologie/Barbus_sp._'Pangani'/Barbus_sp._'Pangani'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbus_sp._%27Pangani%27</t>
+          <t>Barbus_sp._'Pangani'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Barbus sp. ‘Pangani’ est une espèce de poissons d’eau douce de la famille des Cyprinidae mais pour l'instant non décrite.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbus_sp._%27Pangani%27</t>
+          <t>Barbus_sp._'Pangani'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson s'apparente à Barbus apleurogramma (Barbe à nageoires rouges d'Afrique de l'Est) et est actuellement à l'étude pour sa description formelle. Pour l'instant cette espèce est provisoirement attribuée au genre Barbus, mais appartient probablement à un autre genre.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barbus_sp._%27Pangani%27</t>
+          <t>Barbus_sp._'Pangani'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbus sp. nov. 'Pangani' est apparemment endémique au Kenya. Les seuls endroits où il avait été trouvé jusqu'en 2006 étaient les sources de N'joro à la rivière Lumi dans le bassin versant supérieur du fleuve tanzanien Pangani. En raison de cette distribution limitée, il a été classé comme vulnérable par l'UICN[1], mais cela peut changer lorsque ce poisson sera mieux connu.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbus sp. nov. 'Pangani' est apparemment endémique au Kenya. Les seuls endroits où il avait été trouvé jusqu'en 2006 étaient les sources de N'joro à la rivière Lumi dans le bassin versant supérieur du fleuve tanzanien Pangani. En raison de cette distribution limitée, il a été classé comme vulnérable par l'UICN, mais cela peut changer lorsque ce poisson sera mieux connu.
 </t>
         </is>
       </c>
